--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2196.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2196.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.054029260041032</v>
+        <v>0.8729138970375061</v>
       </c>
       <c r="B1">
-        <v>1.826141923170351</v>
+        <v>1.554526805877686</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.376989364624023</v>
       </c>
       <c r="D1">
-        <v>1.699357629033757</v>
+        <v>3.006787300109863</v>
       </c>
       <c r="E1">
-        <v>1.002241225783635</v>
+        <v>1.563802242279053</v>
       </c>
     </row>
   </sheetData>
